--- a/doc/ue_behaviortree.xlsx
+++ b/doc/ue_behaviortree.xlsx
@@ -1,19 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CB4669-2C11-4B94-A74E-BA94133ED790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C86718F-3E80-47E8-B7A3-B4C7B9F7AA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="781" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="行为树描述" sheetId="5" r:id="rId1"/>
+    <sheet name="运行原理" sheetId="1" r:id="rId2"/>
+    <sheet name="行为树自定义Action" sheetId="2" r:id="rId3"/>
+    <sheet name="行为树导出LUA" sheetId="3" r:id="rId4"/>
+    <sheet name="黑板UBlackboardData" sheetId="4" r:id="rId5"/>
+    <sheet name="UBlackboardComponent" sheetId="7" r:id="rId6"/>
+    <sheet name="行为树" sheetId="6" r:id="rId7"/>
+    <sheet name="UBehaviorTree" sheetId="9" r:id="rId8"/>
+    <sheet name="UBehaviorTreeComponent" sheetId="8" r:id="rId9"/>
+    <sheet name="UBehaviorTreeManager" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="165">
   <si>
     <t>UBTNode</t>
   </si>
@@ -109,6 +118,482 @@
   </si>
   <si>
     <t>virtual int32 GetNextChildHandler(FBehaviorTreeSearchData&amp; SearchData, int32 PrevChild, EBTNodeResult::Type LastResult) const override;</t>
+  </si>
+  <si>
+    <t>是基于事件的？？还是基于TICK的？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要是导出LUA给服务器用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单独用于存储行为树的用到的变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLASS(BlueprintType)</t>
+  </si>
+  <si>
+    <t>class AIMODULE_API UBehaviorTree : public UObject, public IBlackboardAssetProvider</t>
+  </si>
+  <si>
+    <t>/** root node of loaded tree */</t>
+  </si>
+  <si>
+    <t>UPROPERTY()</t>
+  </si>
+  <si>
+    <t>UBTCompositeNode* RootNode;</t>
+  </si>
+  <si>
+    <t>变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** blackboard asset for this tree */</t>
+  </si>
+  <si>
+    <t>UBlackboardData* BlackboardAsset;</t>
+  </si>
+  <si>
+    <t>TArray&lt;UBTDecorator*&gt; RootDecorators;</t>
+  </si>
+  <si>
+    <t>/** root level decorators, used by subtrees */</t>
+  </si>
+  <si>
+    <t>/** logic operators for root level decorators, used by subtrees  */</t>
+  </si>
+  <si>
+    <t>TArray&lt;FBTDecoratorLogic&gt; RootDecoratorOps;</t>
+  </si>
+  <si>
+    <t>/** memory size required for instance of this tree */</t>
+  </si>
+  <si>
+    <t>uint16 InstanceMemorySize;</t>
+  </si>
+  <si>
+    <t>！！！黑板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROOT节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLASS(BlueprintType, AutoExpandCategories=(Blackboard))</t>
+  </si>
+  <si>
+    <t>GENERATED_UCLASS_BODY()</t>
+  </si>
+  <si>
+    <t>DECLARE_MULTICAST_DELEGATE_OneParam(FKeyUpdate, UBlackboardData* /*asset*/);</t>
+  </si>
+  <si>
+    <t>/** parent blackboard (keys can be overridden) */</t>
+  </si>
+  <si>
+    <t>UPROPERTY(EditAnywhere, Category=Parent)</t>
+  </si>
+  <si>
+    <t>UBlackboardData* Parent;</t>
+  </si>
+  <si>
+    <t>成员变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** blackboard keys */</t>
+  </si>
+  <si>
+    <t>UPROPERTY(EditAnywhere, Category=Blackboard)</t>
+  </si>
+  <si>
+    <t>TArray&lt;FBlackboardEntry&gt; Keys;</t>
+  </si>
+  <si>
+    <t>对应的数据类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USTRUCT()</t>
+  </si>
+  <si>
+    <t>struct FBlackboardEntry</t>
+  </si>
+  <si>
+    <t>FName EntryName;</t>
+  </si>
+  <si>
+    <t>/** key type and additional properties */</t>
+  </si>
+  <si>
+    <t>UPROPERTY(EditAnywhere, Instanced, Category=Blackboard)</t>
+  </si>
+  <si>
+    <t>UBlackboardKeyType* KeyType;</t>
+  </si>
+  <si>
+    <t>/** if set to true then this field will be synchronized across all instances of this blackboard */</t>
+  </si>
+  <si>
+    <t>uint32 bInstanceSynced : 1;</t>
+  </si>
+  <si>
+    <t>具体的数据就存在这个里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLASS(EditInlineNew, Abstract, CollapseCategories, AutoExpandCategories=(Blackboard))</t>
+  </si>
+  <si>
+    <t>class AIMODULE_API UBlackboardKeyType : public UObject</t>
+  </si>
+  <si>
+    <t>黑板类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keys类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** size of value for this type */</t>
+  </si>
+  <si>
+    <t>uint16 ValueSize;</t>
+  </si>
+  <si>
+    <t>Keys的数据基类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>派生类：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UBlackboardKeyType_String</t>
+  </si>
+  <si>
+    <t>UBlackboardKeyType_Object</t>
+  </si>
+  <si>
+    <t>UBlackboardKeyType_Class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UBlackboardKeyType_Enum</t>
+  </si>
+  <si>
+    <t>UBlackboardKeyType_Int</t>
+  </si>
+  <si>
+    <t>UBlackboardKeyType_Float</t>
+  </si>
+  <si>
+    <t>UBlackboardKeyType_Bool</t>
+  </si>
+  <si>
+    <r>
+      <t>这个上面没有真实的数据，数据存储和读取都发生在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UBlackboardComponent</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLASS(ClassGroup = AI, meta = (BlueprintSpawnableComponent), hidecategories = (Sockets, Collision))</t>
+  </si>
+  <si>
+    <t>黑板数据存储，获取的接口类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UFUNCTION(BlueprintCallable, Category="AI|Components|Blackboard")</t>
+  </si>
+  <si>
+    <t>UObject* GetValueAsObject(const FName&amp; KeyName) const;</t>
+  </si>
+  <si>
+    <t>UClass* GetValueAsClass(const FName&amp; KeyName) const;</t>
+  </si>
+  <si>
+    <t>uint8 GetValueAsEnum(const FName&amp; KeyName) const;</t>
+  </si>
+  <si>
+    <t>int32 GetValueAsInt(const FName&amp; KeyName) const;</t>
+  </si>
+  <si>
+    <t>float GetValueAsFloat(const FName&amp; KeyName) const;</t>
+  </si>
+  <si>
+    <t>bool GetValueAsBool(const FName&amp; KeyName) const;</t>
+  </si>
+  <si>
+    <t>FString GetValueAsString(const FName&amp; KeyName) const;</t>
+  </si>
+  <si>
+    <t>FName GetValueAsName(const FName&amp; KeyName) const;</t>
+  </si>
+  <si>
+    <t>FVector GetValueAsVector(const FName&amp; KeyName) const;</t>
+  </si>
+  <si>
+    <t>FRotator GetValueAsRotator(const FName&amp; KeyName) const;</t>
+  </si>
+  <si>
+    <t>void SetValueAsObject(const FName&amp; KeyName, UObject* ObjectValue);</t>
+  </si>
+  <si>
+    <t>void SetValueAsClass(const FName&amp; KeyName, UClass* ClassValue);</t>
+  </si>
+  <si>
+    <t>void SetValueAsEnum(const FName&amp; KeyName, uint8 EnumValue);</t>
+  </si>
+  <si>
+    <t>void SetValueAsInt(const FName&amp; KeyName, int32 IntValue);</t>
+  </si>
+  <si>
+    <t>void SetValueAsFloat(const FName&amp; KeyName, float FloatValue);</t>
+  </si>
+  <si>
+    <t>void SetValueAsBool(const FName&amp; KeyName, bool BoolValue);</t>
+  </si>
+  <si>
+    <t>void SetValueAsString(const FName&amp; KeyName, FString StringValue);</t>
+  </si>
+  <si>
+    <t>void SetValueAsName(const FName&amp; KeyName, FName NameValue);</t>
+  </si>
+  <si>
+    <t>void SetValueAsVector(const FName&amp; KeyName, FVector VectorValue);</t>
+  </si>
+  <si>
+    <t>UFUNCTION(BlueprintCallable, Category = "AI|Components|Blackboard")</t>
+  </si>
+  <si>
+    <t>void SetValueAsRotator(const FName&amp; KeyName, FRotator VectorValue);</t>
+  </si>
+  <si>
+    <t>蓝图获取接口：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** cached behavior tree component */</t>
+  </si>
+  <si>
+    <t>UPROPERTY(transient)</t>
+  </si>
+  <si>
+    <t>UBrainComponent* BrainComp;</t>
+  </si>
+  <si>
+    <t>成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** memory block holding all values */</t>
+  </si>
+  <si>
+    <t>TArray&lt;uint8&gt; ValueMemory;</t>
+  </si>
+  <si>
+    <t>/** offsets in ValueMemory for each key */</t>
+  </si>
+  <si>
+    <t>TArray&lt;uint16&gt; ValueOffsets;</t>
+  </si>
+  <si>
+    <t>所有的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个数据的偏移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** instanced keys with custom data allocations */</t>
+  </si>
+  <si>
+    <t>TArray&lt;UBlackboardKeyType*&gt; KeyInstances;</t>
+  </si>
+  <si>
+    <t>因为数据都在自己身上，每次蓝图接口获取数值，就是找到对应的Type，把自己身上的内存地址传进去，由不同的TYPE进行处理获取数值（例如简单类型就强转等操作）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么挂在人身上？？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UFUNCTION(BlueprintCallable, Category = "AI")</t>
+  </si>
+  <si>
+    <t>Blackboard = FindComponentByClass&lt;UBlackboardComponent&gt;();</t>
+  </si>
+  <si>
+    <t>if (Blackboard == nullptr)</t>
+  </si>
+  <si>
+    <t>Blackboard = NewObject&lt;UBlackboardComponent&gt;(this, TEXT("BlackboardComponent"));</t>
+  </si>
+  <si>
+    <t>InitializeBlackboard(*Blackboard, *BlackboardAsset);</t>
+  </si>
+  <si>
+    <t>Blackboard-&gt;RegisterComponent();</t>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class AIMODULE_API UBlackboardComponent : public UActorComponent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以看出来，当在蓝图里面调用UseBlackboard的时候，会触发该函数，内部会判断，如果没有UBlackboardComponent，就新创建一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建之后，在其void UActorComponent::PostInitProperties()的时候插入到Aactor的OwnedComponents对象里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool AAIController::UseBlackboard(UBlackboardData* BlackboardAsset, UBlackboardComponent*&amp; BlackboardComponent)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool AAIController::RunBehaviorTree(UBehaviorTree* BTAsset)</t>
+  </si>
+  <si>
+    <t>UBlackboardComponent* BlackboardComp = Blackboard;</t>
+  </si>
+  <si>
+    <t>if (BTAsset-&gt;BlackboardAsset &amp;&amp; (Blackboard == nullptr || Blackboard-&gt;IsCompatibleWith(BTAsset-&gt;BlackboardAsset) == false))</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>bSuccess = UseBlackboard(BTAsset-&gt;BlackboardAsset, BlackboardComp);</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>if (bSuccess)</t>
+  </si>
+  <si>
+    <t>UBehaviorTreeComponent* BTComp = Cast&lt;UBehaviorTreeComponent&gt;(BrainComponent);</t>
+  </si>
+  <si>
+    <t>if (BTComp == NULL)</t>
+  </si>
+  <si>
+    <t>UE_VLOG(this, LogBehaviorTree, Log, TEXT("RunBehaviorTree: spawning BehaviorTreeComponent.."));</t>
+  </si>
+  <si>
+    <t>BTComp = NewObject&lt;UBehaviorTreeComponent&gt;(this, TEXT("BTComponent"));</t>
+  </si>
+  <si>
+    <t>BTComp-&gt;RegisterComponent();</t>
+  </si>
+  <si>
+    <t>// make sure BrainComponent points at the newly created BT component</t>
+  </si>
+  <si>
+    <t>BrainComponent = BTComp;</t>
+  </si>
+  <si>
+    <t>check(BTComp != NULL);</t>
+  </si>
+  <si>
+    <t>BTComp-&gt;StartTree(*BTAsset, EBTExecutionMode::Looped);</t>
+  </si>
+  <si>
+    <t>开始运行BT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建BlackboardComponent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建BehaviorTreeComponent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始运行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class AIMODULE_API UBlackboardData : public UDataAsset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑板数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UCLASS(ClassGroup = AI, meta = (BlueprintSpawnableComponent))</t>
+  </si>
+  <si>
+    <t>class AIMODULE_API UBehaviorTreeComponent : public UBrainComponent</t>
+  </si>
+  <si>
+    <t>行为树组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/** stack of behavior tree instances */</t>
+  </si>
+  <si>
+    <t>TArray&lt;FBehaviorTreeInstance&gt; InstanceStack;</t>
+  </si>
+  <si>
+    <t>/** list of known subtree instances */</t>
+  </si>
+  <si>
+    <t>TArray&lt;FBehaviorTreeInstanceId&gt; KnownInstances;</t>
+  </si>
+  <si>
+    <t>UCLASS(config=Engine, Transient)</t>
+  </si>
+  <si>
+    <t>class AIMODULE_API UBehaviorTreeManager : public UObject</t>
+  </si>
+  <si>
+    <t>行为树管理器？？？！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -175,7 +660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -188,6 +673,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -203,6 +689,148 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>637926</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>66393</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16C10A17-9F1C-4C4C-8193-AC81B60BC743}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8248650" y="1247775"/>
+          <a:ext cx="1990476" cy="2257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304079</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>56827</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19ADE9D1-1F4C-39B3-2E6B-9F233FC11A1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8248650" y="4171950"/>
+          <a:ext cx="5771429" cy="2580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>437583</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>94702</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7155E978-69E2-8D27-D213-EE67BB475B7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11677650" y="1866900"/>
+          <a:ext cx="4533333" cy="4380952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -467,11 +1095,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CDE61B-74AE-4CFF-9AA2-AC38AF7E6682}">
+  <dimension ref="B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3863C10-58CA-42EF-9449-517A9890BAD9}">
+  <dimension ref="B3:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -613,4 +1293,1090 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0925EBCE-6A17-4AA9-9099-D2D1D7EFDAFD}">
+  <dimension ref="B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE263736-EC6D-4BDD-AFC2-AF9CB2256094}">
+  <dimension ref="B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B52B477-8073-436B-83E6-1D85EC42B1F7}">
+  <dimension ref="B4:J54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="6"/>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C8" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C12" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>53</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C25" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C28" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>60</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C41" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C47" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68FE5C7D-CA94-497C-B68C-2CCEAE3E97FF}">
+  <dimension ref="B3:R101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B3" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B7" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="E15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="E16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B17" s="6"/>
+      <c r="E17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="6"/>
+      <c r="D18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="6">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B20" s="6"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B21" s="6">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="6"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B26" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>110</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>111</v>
+      </c>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>112</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C80" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C82" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C83" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C85" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C86" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C88" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C91" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C92" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C94" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C95" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C97" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C98" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C100" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C101" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF4C12B-DA19-4656-9AC0-F5757D41A5CD}">
+  <dimension ref="B6:K27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5C9A3C-07B6-4255-8452-5DD4E21A6BCE}">
+  <dimension ref="C8:L25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE446C53-46F9-4872-A83C-6AA4343A710D}">
+  <dimension ref="B4:F46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C6" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C15" s="6">
+        <v>2</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C30" s="6">
+        <v>3</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="E32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_behaviortree.xlsx
+++ b/doc/ue_behaviortree.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C86718F-3E80-47E8-B7A3-B4C7B9F7AA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="781" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="781" firstSheet="2" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="行为树描述" sheetId="5" r:id="rId1"/>
@@ -23,6 +22,7 @@
     <sheet name="UBehaviorTree" sheetId="9" r:id="rId8"/>
     <sheet name="UBehaviorTreeComponent" sheetId="8" r:id="rId9"/>
     <sheet name="UBehaviorTreeManager" sheetId="10" r:id="rId10"/>
+    <sheet name="打断逻辑实现" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -599,7 +599,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1095,7 +1095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13CDE61B-74AE-4CFF-9AA2-AC38AF7E6682}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1116,10 +1116,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3863C10-58CA-42EF-9449-517A9890BAD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -1146,8 +1146,24 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
@@ -1296,7 +1312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0925EBCE-6A17-4AA9-9099-D2D1D7EFDAFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1318,7 +1334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE263736-EC6D-4BDD-AFC2-AF9CB2256094}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1339,7 +1355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B52B477-8073-436B-83E6-1D85EC42B1F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1559,7 +1575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68FE5C7D-CA94-497C-B68C-2CCEAE3E97FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:R101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1989,7 +2005,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF4C12B-DA19-4656-9AC0-F5757D41A5CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B6:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2096,7 +2112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C5C9A3C-07B6-4255-8452-5DD4E21A6BCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C8:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2190,7 +2206,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE446C53-46F9-4872-A83C-6AA4343A710D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F46"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">

--- a/doc/ue_behaviortree.xlsx
+++ b/doc/ue_behaviortree.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB7B798-838A-40DB-9799-1FCA3A74EFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="781" firstSheet="2" activeTab="10"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="886" firstSheet="2" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="行为树描述" sheetId="5" r:id="rId1"/>
@@ -23,6 +24,7 @@
     <sheet name="UBehaviorTreeComponent" sheetId="8" r:id="rId9"/>
     <sheet name="UBehaviorTreeManager" sheetId="10" r:id="rId10"/>
     <sheet name="打断逻辑实现" sheetId="11" r:id="rId11"/>
+    <sheet name="自定义节点" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="169">
   <si>
     <t>UBTNode</t>
   </si>
@@ -595,12 +597,24 @@
     <t>行为树管理器？？？！！！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>https://blog.csdn.net/lei_7103/article/details/103064679</t>
+  </si>
+  <si>
+    <t>2.打开创建的AlwaysTrue蓝图，创建Event Receive Execute 节点，该节点发生在当Task要求被执行时。</t>
+  </si>
+  <si>
+    <t>3.Event Receive Execute 节点要有Finish Execute节点返回Success ，否则在行为树中该节点将无限等待。</t>
+  </si>
+  <si>
+    <t>4.执行逻辑编辑</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -639,6 +653,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -660,7 +680,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -674,6 +694,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -826,6 +856,255 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{465E9137-0062-4849-8A80-EF9F34A02033}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1400175" y="885825"/>
+          <a:ext cx="2933700" cy="1238250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E27FF4FF-4821-49E4-8577-49E2BFC8DDB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1428750" y="2514600"/>
+          <a:ext cx="2085975" cy="1057275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE5B9F8E-A740-45D2-996B-A95B55D021B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1504950" y="4048125"/>
+          <a:ext cx="2028825" cy="1533525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{894F1D5B-FF63-4A49-8A0C-DC6E211F4266}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1371600" y="6286500"/>
+          <a:ext cx="3524250" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1095,7 +1374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1116,7 +1395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B3:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1147,10 +1426,10 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
@@ -1162,8 +1441,115 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAF05D7C-3199-4766-8C8E-1468A8A48556}">
+  <dimension ref="B3:C39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C11" s="9"/>
+    </row>
+    <row r="13" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="C13" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="9"/>
+    </row>
+    <row r="22" spans="3:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="C22" s="7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C30" s="9"/>
+    </row>
+    <row r="32" spans="3:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="C32" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="C33" s="8"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="9"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="9"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="9"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C37" s="9"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38" s="9"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
@@ -1312,7 +1698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1334,7 +1720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1355,7 +1741,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B4:J54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1575,7 +1961,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B3:R101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2005,7 +2391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B6:K27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2112,7 +2498,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="C8:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2206,7 +2592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B4:F46"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
